--- a/Project/testdata/TonerExcel.xlsx
+++ b/Project/testdata/TonerExcel.xlsx
@@ -409,7 +409,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>Lipstick</v>
       </c>
     </row>
   </sheetData>

--- a/Project/testdata/TonerExcel.xlsx
+++ b/Project/testdata/TonerExcel.xlsx
@@ -409,7 +409,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Lipstick</v>
+        <v>Liquid Lipstick</v>
       </c>
     </row>
   </sheetData>

--- a/Project/testdata/TonerExcel.xlsx
+++ b/Project/testdata/TonerExcel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,9 +412,14 @@
         <v>Liquid Lipstick</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Lipstick</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/TonerExcel.xlsx
+++ b/Project/testdata/TonerExcel.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Toner</v>
+        <v>TONER</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/TonerExcel.xlsx
+++ b/Project/testdata/TonerExcel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,20 +406,69 @@
       <c r="A1" t="str">
         <v>TONER</v>
       </c>
+      <c r="B1" t="str">
+        <v>Toner</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>Liquid Lipstick</v>
       </c>
+      <c r="B2" t="str">
+        <v>inclusive of all taxes</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>Lipstick</v>
       </c>
+      <c r="B3" t="str">
+        <v>Description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Order Related</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Order Status</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Can I return part of my order?</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Cancellation Policy</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://www.nykaa.com/cancellation-policy/lp</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Select A Shade</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Browse Topics</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Was this helpful?</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
   </ignoredErrors>
 </worksheet>
 </file>